--- a/201720Assignment5.xlsx
+++ b/201720Assignment5.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10860" yWindow="460" windowWidth="14600" windowHeight="15460" tabRatio="892" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="892" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="4" r:id="rId1"/>
@@ -783,7 +783,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1639" uniqueCount="1002">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="1018">
   <si>
     <t>Create an interface  specification depicting the interaction between a test driver and the class specified above.  Create nominal scenario(s) and anomalous scenario(s) sufficient to convey your understanding of software behavior</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -4547,9 +4547,6 @@
     <t>{'op':'predict','body':'Betelgeuse','date':'2016-01-17','time':'03:15:42','long':'75d53.6','lat':'7d24.3'}</t>
   </si>
   <si>
-    <t>{'op':'predict','body':'Betelgeuse','date':'2016-01-17','time':'03:15:42','long':'75d53.6','lat':'7d24.3','error':'lat and/or long already present'}</t>
-  </si>
-  <si>
     <t>{'op':'predict','body':'Betelgeuse','date':'2016-01-17','time':'03:15:42'}</t>
   </si>
   <si>
@@ -4575,6 +4572,57 @@
   </si>
   <si>
     <t>Need to test for app 'body'</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>Should return values for each error</t>
+  </si>
+  <si>
+    <t>Need to build return error for invalid date</t>
+  </si>
+  <si>
+    <t>Need to build return error for invalid time</t>
+  </si>
+  <si>
+    <t>Needed to remove 'return values'; redundant w/ raise</t>
+  </si>
+  <si>
+    <t>Need to build return error for lat or long in dict</t>
+  </si>
+  <si>
+    <t>{'op':'predict','body':'Betelgeuse','date':'2016-01-17','time':'03:15:42','long':'75d53.6','lat':'7d24.3','error':'lat and/or long already in dict'}</t>
+  </si>
+  <si>
+    <t>Problem with conditional statement</t>
+  </si>
+  <si>
+    <t>Need to build predict function</t>
+  </si>
+  <si>
+    <t>Need to locate body &amp; retrieve lat</t>
+  </si>
+  <si>
+    <t>Begin build predict, find star, identify lat</t>
+  </si>
+  <si>
+    <t>List inappropriately formatted {} to []</t>
+  </si>
+  <si>
+    <t>Toy with calling index number</t>
+  </si>
+  <si>
+    <t>Build print lat</t>
+  </si>
+  <si>
+    <t>Falsely called declination</t>
+  </si>
+  <si>
+    <t>{'op':'predict','body':'Betelgeuse','date':'2016-01-17','time':'03:15:42','lat':'7d24.3'}</t>
+  </si>
+  <si>
+    <t>Failed</t>
   </si>
 </sst>
 </file>
@@ -15439,7 +15487,7 @@
       </c>
       <c r="F63" s="27">
         <f t="shared" si="1"/>
-        <v>0.29605263157894735</v>
+        <v>0.25714285714285712</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.15">
@@ -15475,15 +15523,15 @@
       </c>
       <c r="D65" s="169">
         <f>SUMIF('Time Log'!$F$48:$F$137,A65,'Time Log'!$E$48:$E$137)</f>
-        <v>0</v>
+        <v>109.99999999999997</v>
       </c>
       <c r="E65" s="158">
         <f>D65+'Historical Data'!E69</f>
-        <v>465</v>
+        <v>575</v>
       </c>
       <c r="F65" s="27">
         <f t="shared" si="1"/>
-        <v>0.61184210526315785</v>
+        <v>0.65714285714285714</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.15">
@@ -15527,7 +15575,7 @@
       </c>
       <c r="F67" s="27">
         <f t="shared" si="1"/>
-        <v>7.8947368421052627E-2</v>
+        <v>6.8571428571428575E-2</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.15">
@@ -15593,7 +15641,7 @@
       </c>
       <c r="F70" s="27">
         <f t="shared" si="1"/>
-        <v>6.5789473684210523E-3</v>
+        <v>5.7142857142857143E-3</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.15">
@@ -15607,15 +15655,15 @@
       </c>
       <c r="D71" s="169">
         <f>SUMIF('Time Log'!$F$48:$F$137,A71,'Time Log'!$E$48:$E$137)</f>
-        <v>0</v>
+        <v>5.0000000000000222</v>
       </c>
       <c r="E71" s="158">
         <f>D71+'Historical Data'!E75</f>
-        <v>5</v>
+        <v>10.000000000000021</v>
       </c>
       <c r="F71" s="27">
         <f>IF($E$72=0,0,E71/$E$72)</f>
-        <v>6.5789473684210523E-3</v>
+        <v>1.1428571428571453E-2</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.15">
@@ -15627,11 +15675,11 @@
       </c>
       <c r="D72" s="169">
         <f>SUM(D61:D71)</f>
-        <v>105</v>
+        <v>220</v>
       </c>
       <c r="E72" s="158">
         <f>D72+'Historical Data'!E76</f>
-        <v>760</v>
+        <v>875</v>
       </c>
       <c r="F72" s="27">
         <f>IF($E$72=0,0,E72/$E$72)</f>
@@ -15741,11 +15789,11 @@
       </c>
       <c r="D79" s="25">
         <f>COUNTIF('Change Log'!$D$60:$D$134,A79)</f>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E79" s="25">
         <f>D79+'Historical Data'!E83</f>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F79" s="27">
         <f t="shared" si="3"/>
@@ -15866,11 +15914,11 @@
       </c>
       <c r="D86" s="25">
         <f>SUM(D75:D85)</f>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E86" s="25">
         <f>D86+'Historical Data'!E90</f>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F86" s="27">
         <f t="shared" si="3"/>
@@ -15976,11 +16024,11 @@
       </c>
       <c r="D93" s="25">
         <f>COUNTIF('Change Log'!$F$60:$F$134,A93)</f>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E93" s="25">
         <f>D93+'Historical Data'!E97</f>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F93" s="225">
         <f t="shared" si="5"/>
@@ -16101,11 +16149,11 @@
       </c>
       <c r="D100" s="25">
         <f>SUM(D89:D99)</f>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E100" s="25">
         <f>D100+'Historical Data'!E104</f>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F100" s="225">
         <f t="shared" si="5"/>
@@ -19181,15 +19229,15 @@
       </c>
       <c r="D54" s="169">
         <f>SUMIF('Time Log'!$F$48:$F$137,A54,'Time Log'!$E$48:$E$137)</f>
-        <v>0</v>
+        <v>109.99999999999997</v>
       </c>
       <c r="E54" s="158">
         <f>D54+'Historical Data'!E69</f>
-        <v>465</v>
+        <v>575</v>
       </c>
       <c r="F54" s="27">
         <f t="shared" si="0"/>
-        <v>93</v>
+        <v>115</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.15">
@@ -19313,15 +19361,15 @@
       </c>
       <c r="D60" s="169">
         <f>SUMIF('Time Log'!$F$48:$F$137,A60,'Time Log'!$E$48:$E$137)</f>
-        <v>0</v>
+        <v>5.0000000000000222</v>
       </c>
       <c r="E60" s="158">
         <f>D60+'Historical Data'!E75</f>
-        <v>5</v>
+        <v>10.000000000000021</v>
       </c>
       <c r="F60" s="27">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2.0000000000000044</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.15">
@@ -19335,15 +19383,15 @@
       </c>
       <c r="D61" s="169">
         <f>SUM(D50:D60)</f>
-        <v>105</v>
+        <v>220</v>
       </c>
       <c r="E61" s="169">
         <f>D61+'Historical Data'!E76</f>
-        <v>760</v>
+        <v>875</v>
       </c>
       <c r="F61" s="27">
         <f t="shared" si="0"/>
-        <v>152</v>
+        <v>175</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.15">
@@ -19763,7 +19811,7 @@
   <dimension ref="A1:M134"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="J63" sqref="J63"/>
+      <selection activeCell="J72" sqref="J72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -21739,7 +21787,7 @@
       </c>
       <c r="I60" s="7"/>
       <c r="J60" s="175" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="K60" s="34" t="str">
         <f ca="1">IF(ISBLANK(I60),"",IF(I60=A60,"&lt;-- Circular reference",IF(ISBLANK(OFFSET($C$59,I60,0)),"&lt;-- Invalid reference","")))</f>
@@ -21763,12 +21811,16 @@
         <v>127</v>
       </c>
       <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
+      <c r="F61" s="474" t="s">
+        <v>127</v>
+      </c>
       <c r="G61" s="5"/>
-      <c r="H61" s="7"/>
+      <c r="H61" s="7">
+        <v>30</v>
+      </c>
       <c r="I61" s="7"/>
       <c r="J61" s="175" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="K61" s="34" t="str">
         <f t="shared" ref="K61:K109" ca="1" si="3">IF(ISBLANK(I61),"",IF(I61=A61,"&lt;-- Circular reference",IF(ISBLANK(OFFSET($C$59,I61,0)),"&lt;-- Invalid reference","")))</f>
@@ -21782,15 +21834,27 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="B62" s="11"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
+      <c r="B62" s="11">
+        <v>42833</v>
+      </c>
+      <c r="C62" s="474" t="s">
+        <v>146</v>
+      </c>
+      <c r="D62" s="474" t="s">
+        <v>127</v>
+      </c>
       <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
+      <c r="F62" s="474" t="s">
+        <v>127</v>
+      </c>
       <c r="G62" s="5"/>
-      <c r="H62" s="7"/>
+      <c r="H62" s="7">
+        <v>10</v>
+      </c>
       <c r="I62" s="7"/>
-      <c r="J62" s="175"/>
+      <c r="J62" s="175" t="s">
+        <v>1002</v>
+      </c>
       <c r="K62" s="34" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
@@ -21803,15 +21867,27 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="B63" s="11"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
+      <c r="B63" s="11">
+        <v>42833</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
+      <c r="F63" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="G63" s="5"/>
-      <c r="H63" s="7"/>
+      <c r="H63" s="7">
+        <v>15</v>
+      </c>
       <c r="I63" s="7"/>
-      <c r="J63" s="175"/>
+      <c r="J63" s="175" t="s">
+        <v>1003</v>
+      </c>
       <c r="K63" s="34" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
@@ -21824,15 +21900,27 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="B64" s="11"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
+      <c r="B64" s="11">
+        <v>42833</v>
+      </c>
+      <c r="C64" s="474" t="s">
+        <v>146</v>
+      </c>
+      <c r="D64" s="474" t="s">
+        <v>127</v>
+      </c>
       <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
+      <c r="F64" s="474" t="s">
+        <v>127</v>
+      </c>
       <c r="G64" s="5"/>
-      <c r="H64" s="7"/>
+      <c r="H64" s="7">
+        <v>4</v>
+      </c>
       <c r="I64" s="7"/>
-      <c r="J64" s="175"/>
+      <c r="J64" s="175" t="s">
+        <v>1004</v>
+      </c>
       <c r="K64" s="34" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
@@ -21845,15 +21933,27 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="B65" s="11"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
+      <c r="B65" s="11">
+        <v>42833</v>
+      </c>
+      <c r="C65" s="474" t="s">
+        <v>146</v>
+      </c>
+      <c r="D65" s="474" t="s">
+        <v>127</v>
+      </c>
       <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
+      <c r="F65" s="474" t="s">
+        <v>127</v>
+      </c>
       <c r="G65" s="5"/>
-      <c r="H65" s="7"/>
+      <c r="H65" s="7">
+        <v>1</v>
+      </c>
       <c r="I65" s="7"/>
-      <c r="J65" s="175"/>
+      <c r="J65" s="175" t="s">
+        <v>1005</v>
+      </c>
       <c r="K65" s="34" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
@@ -21866,15 +21966,27 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="B66" s="11"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
+      <c r="B66" s="11">
+        <v>42833</v>
+      </c>
+      <c r="C66" s="474" t="s">
+        <v>146</v>
+      </c>
+      <c r="D66" s="474" t="s">
+        <v>127</v>
+      </c>
       <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
+      <c r="F66" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="G66" s="5"/>
-      <c r="H66" s="7"/>
+      <c r="H66" s="7">
+        <v>2</v>
+      </c>
       <c r="I66" s="7"/>
-      <c r="J66" s="175"/>
+      <c r="J66" s="175" t="s">
+        <v>1006</v>
+      </c>
       <c r="K66" s="34" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
@@ -21887,15 +21999,29 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="B67" s="11"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
+      <c r="B67" s="11">
+        <v>42833</v>
+      </c>
+      <c r="C67" s="474" t="s">
+        <v>146</v>
+      </c>
+      <c r="D67" s="474" t="s">
+        <v>127</v>
+      </c>
       <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
+      <c r="F67" s="474" t="s">
+        <v>127</v>
+      </c>
       <c r="G67" s="5"/>
-      <c r="H67" s="7"/>
-      <c r="I67" s="7"/>
-      <c r="J67" s="175"/>
+      <c r="H67" s="7">
+        <v>5</v>
+      </c>
+      <c r="I67" s="7">
+        <v>7</v>
+      </c>
+      <c r="J67" s="175" t="s">
+        <v>1008</v>
+      </c>
       <c r="K67" s="34" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
@@ -21908,15 +22034,27 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="B68" s="11"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
+      <c r="B68" s="11">
+        <v>42833</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
+      <c r="F68" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="G68" s="5"/>
-      <c r="H68" s="7"/>
+      <c r="H68" s="7">
+        <v>5</v>
+      </c>
       <c r="I68" s="7"/>
-      <c r="J68" s="175"/>
+      <c r="J68" s="175" t="s">
+        <v>1009</v>
+      </c>
       <c r="K68" s="34" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
@@ -21929,15 +22067,27 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="B69" s="11"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
+      <c r="B69" s="11">
+        <v>42833</v>
+      </c>
+      <c r="C69" s="474" t="s">
+        <v>146</v>
+      </c>
+      <c r="D69" s="474" t="s">
+        <v>127</v>
+      </c>
       <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
+      <c r="F69" s="474" t="s">
+        <v>127</v>
+      </c>
       <c r="G69" s="5"/>
-      <c r="H69" s="7"/>
+      <c r="H69" s="7">
+        <v>10</v>
+      </c>
       <c r="I69" s="7"/>
-      <c r="J69" s="175"/>
+      <c r="J69" s="175" t="s">
+        <v>1010</v>
+      </c>
       <c r="K69" s="34" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
@@ -21950,15 +22100,27 @@
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="B70" s="11"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
+      <c r="B70" s="11">
+        <v>42833</v>
+      </c>
+      <c r="C70" s="474" t="s">
+        <v>146</v>
+      </c>
+      <c r="D70" s="474" t="s">
+        <v>127</v>
+      </c>
       <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
+      <c r="F70" s="474" t="s">
+        <v>127</v>
+      </c>
       <c r="G70" s="5"/>
-      <c r="H70" s="7"/>
+      <c r="H70" s="7">
+        <v>10</v>
+      </c>
       <c r="I70" s="7"/>
-      <c r="J70" s="175"/>
+      <c r="J70" s="175" t="s">
+        <v>1012</v>
+      </c>
       <c r="K70" s="34" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
@@ -21971,15 +22133,27 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="B71" s="11"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
+      <c r="B71" s="11">
+        <v>42833</v>
+      </c>
+      <c r="C71" s="474" t="s">
+        <v>146</v>
+      </c>
+      <c r="D71" s="474" t="s">
+        <v>127</v>
+      </c>
       <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
+      <c r="F71" s="474" t="s">
+        <v>127</v>
+      </c>
       <c r="G71" s="5"/>
-      <c r="H71" s="7"/>
+      <c r="H71" s="7">
+        <v>5</v>
+      </c>
       <c r="I71" s="7"/>
-      <c r="J71" s="175"/>
+      <c r="J71" s="175" t="s">
+        <v>1015</v>
+      </c>
       <c r="K71" s="34" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
@@ -23358,7 +23532,7 @@
   <dimension ref="A1:K137"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -24706,7 +24880,7 @@
       </c>
       <c r="G49" s="10"/>
       <c r="H49" s="42" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I49" s="3" t="str">
         <f t="shared" si="0"/>
@@ -24733,7 +24907,7 @@
       </c>
       <c r="G50" s="10"/>
       <c r="H50" s="42" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="I50" s="3" t="str">
         <f t="shared" si="0"/>
@@ -24747,18 +24921,20 @@
       <c r="B51" s="12">
         <v>0.15625</v>
       </c>
-      <c r="C51" s="12"/>
+      <c r="C51" s="12">
+        <v>0.20833333333333334</v>
+      </c>
       <c r="D51" s="7"/>
-      <c r="E51" s="16" t="str">
+      <c r="E51" s="16">
         <f>IF(OR(ISBLANK(B51),ISBLANK(C51)),"",(C51-B51)*24*60-D51)</f>
-        <v/>
+        <v>75.000000000000014</v>
       </c>
       <c r="F51" s="10" t="s">
         <v>127</v>
       </c>
       <c r="G51" s="10"/>
       <c r="H51" s="42" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="I51" s="3" t="str">
         <f t="shared" si="0"/>
@@ -24766,51 +24942,81 @@
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A52" s="11"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
+      <c r="A52" s="11">
+        <v>42833</v>
+      </c>
+      <c r="B52" s="12">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C52" s="12">
+        <v>0.22916666666666666</v>
+      </c>
       <c r="D52" s="7"/>
-      <c r="E52" s="16" t="str">
+      <c r="E52" s="16">
         <f>IF(OR(ISBLANK(B52),ISBLANK(C52)),"",(C52-B52)*24*60-D52)</f>
-        <v/>
-      </c>
-      <c r="F52" s="10"/>
+        <v>29.999999999999972</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>127</v>
+      </c>
       <c r="G52" s="10"/>
-      <c r="H52" s="42"/>
+      <c r="H52" s="42" t="s">
+        <v>1011</v>
+      </c>
       <c r="I52" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A53" s="11"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
+      <c r="A53" s="11">
+        <v>42833</v>
+      </c>
+      <c r="B53" s="12">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="C53" s="12">
+        <v>0.22569444444444445</v>
+      </c>
       <c r="D53" s="7"/>
-      <c r="E53" s="16" t="str">
+      <c r="E53" s="16">
         <f t="shared" ref="E53:E60" si="1">IF(OR(ISBLANK(B53),ISBLANK(C53)),"",(C53-B53)*24*60-D53)</f>
-        <v/>
-      </c>
-      <c r="F53" s="10"/>
+        <v>5.0000000000000222</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>144</v>
+      </c>
       <c r="G53" s="10"/>
-      <c r="H53" s="42"/>
+      <c r="H53" s="42" t="s">
+        <v>1013</v>
+      </c>
       <c r="I53" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A54" s="11"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
+      <c r="A54" s="11">
+        <v>42833</v>
+      </c>
+      <c r="B54" s="12">
+        <v>0.22569444444444445</v>
+      </c>
+      <c r="C54" s="12">
+        <v>0.22916666666666666</v>
+      </c>
       <c r="D54" s="7"/>
-      <c r="E54" s="16" t="str">
+      <c r="E54" s="16">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F54" s="10"/>
+        <v>4.9999999999999822</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>127</v>
+      </c>
       <c r="G54" s="10"/>
-      <c r="H54" s="42"/>
+      <c r="H54" s="42" t="s">
+        <v>1014</v>
+      </c>
       <c r="I54" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -31807,7 +32013,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C61"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -32483,6 +32691,7 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -33804,7 +34013,7 @@
       </c>
       <c r="B48" s="26"/>
       <c r="C48" s="442" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="D48" s="442"/>
       <c r="E48" s="8"/>
@@ -33815,7 +34024,7 @@
       </c>
       <c r="B49" s="26"/>
       <c r="C49" s="442" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D49" s="442"/>
       <c r="E49" s="8"/>
@@ -33826,7 +34035,7 @@
       </c>
       <c r="B50" s="26"/>
       <c r="C50" s="442" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D50" s="442"/>
       <c r="E50" s="8"/>
@@ -42387,8 +42596,8 @@
   </sheetPr>
   <dimension ref="A1:G152"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -43751,7 +43960,9 @@
         <v>984</v>
       </c>
       <c r="D52" s="59"/>
-      <c r="E52" s="61"/>
+      <c r="E52" s="61" t="s">
+        <v>1001</v>
+      </c>
       <c r="F52" s="173"/>
     </row>
     <row r="53" spans="1:6" s="58" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
@@ -43765,7 +43976,9 @@
         <v>986</v>
       </c>
       <c r="D53" s="59"/>
-      <c r="E53" s="61"/>
+      <c r="E53" s="61" t="s">
+        <v>1001</v>
+      </c>
       <c r="F53" s="173"/>
     </row>
     <row r="54" spans="1:6" s="58" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
@@ -43779,7 +43992,9 @@
         <v>988</v>
       </c>
       <c r="D54" s="59"/>
-      <c r="E54" s="61"/>
+      <c r="E54" s="61" t="s">
+        <v>1001</v>
+      </c>
       <c r="F54" s="173"/>
     </row>
     <row r="55" spans="1:6" s="58" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
@@ -43793,7 +44008,9 @@
         <v>990</v>
       </c>
       <c r="D55" s="59"/>
-      <c r="E55" s="61"/>
+      <c r="E55" s="61" t="s">
+        <v>1001</v>
+      </c>
       <c r="F55" s="173"/>
     </row>
     <row r="56" spans="1:6" s="58" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
@@ -43804,10 +44021,12 @@
         <v>991</v>
       </c>
       <c r="C56" s="173" t="s">
-        <v>992</v>
+        <v>1007</v>
       </c>
       <c r="D56" s="59"/>
-      <c r="E56" s="61"/>
+      <c r="E56" s="61" t="s">
+        <v>1001</v>
+      </c>
       <c r="F56" s="173"/>
     </row>
     <row r="57" spans="1:6" s="58" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
@@ -43815,21 +44034,31 @@
         <v>670</v>
       </c>
       <c r="B57" s="173" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C57" s="173" t="s">
         <v>991</v>
       </c>
       <c r="D57" s="59"/>
-      <c r="E57" s="61"/>
+      <c r="E57" s="61" t="s">
+        <v>1017</v>
+      </c>
       <c r="F57" s="173"/>
     </row>
     <row r="58" spans="1:6" s="58" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="60"/>
-      <c r="B58" s="60"/>
-      <c r="C58" s="60"/>
+      <c r="A58" s="60" t="s">
+        <v>670</v>
+      </c>
+      <c r="B58" s="173" t="s">
+        <v>992</v>
+      </c>
+      <c r="C58" s="173" t="s">
+        <v>1016</v>
+      </c>
       <c r="D58" s="59"/>
-      <c r="E58" s="61"/>
+      <c r="E58" s="61" t="s">
+        <v>1001</v>
+      </c>
       <c r="F58" s="173"/>
     </row>
     <row r="59" spans="1:6" s="58" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">

--- a/201720Assignment5.xlsx
+++ b/201720Assignment5.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="892" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="892" firstSheet="1" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="4" r:id="rId1"/>
@@ -783,7 +783,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="1018">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1698" uniqueCount="1019">
   <si>
     <t>Create an interface  specification depicting the interaction between a test driver and the class specified above.  Create nominal scenario(s) and anomalous scenario(s) sufficient to convey your understanding of software behavior</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -4623,6 +4623,9 @@
   </si>
   <si>
     <t>Failed</t>
+  </si>
+  <si>
+    <t>Add sidereal hour to star class</t>
   </si>
 </sst>
 </file>
@@ -15487,7 +15490,7 @@
       </c>
       <c r="F63" s="27">
         <f t="shared" si="1"/>
-        <v>0.25714285714285712</v>
+        <v>0.25568181818181818</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.15">
@@ -15523,15 +15526,15 @@
       </c>
       <c r="D65" s="169">
         <f>SUMIF('Time Log'!$F$48:$F$137,A65,'Time Log'!$E$48:$E$137)</f>
-        <v>109.99999999999997</v>
+        <v>114.99999999999996</v>
       </c>
       <c r="E65" s="158">
         <f>D65+'Historical Data'!E69</f>
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="F65" s="27">
         <f t="shared" si="1"/>
-        <v>0.65714285714285714</v>
+        <v>0.65909090909090906</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.15">
@@ -15575,7 +15578,7 @@
       </c>
       <c r="F67" s="27">
         <f t="shared" si="1"/>
-        <v>6.8571428571428575E-2</v>
+        <v>6.8181818181818177E-2</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.15">
@@ -15641,7 +15644,7 @@
       </c>
       <c r="F70" s="27">
         <f t="shared" si="1"/>
-        <v>5.7142857142857143E-3</v>
+        <v>5.681818181818182E-3</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.15">
@@ -15663,7 +15666,7 @@
       </c>
       <c r="F71" s="27">
         <f>IF($E$72=0,0,E71/$E$72)</f>
-        <v>1.1428571428571453E-2</v>
+        <v>1.1363636363636388E-2</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.15">
@@ -15675,11 +15678,11 @@
       </c>
       <c r="D72" s="169">
         <f>SUM(D61:D71)</f>
-        <v>220</v>
+        <v>224.99999999999997</v>
       </c>
       <c r="E72" s="158">
         <f>D72+'Historical Data'!E76</f>
-        <v>875</v>
+        <v>880</v>
       </c>
       <c r="F72" s="27">
         <f>IF($E$72=0,0,E72/$E$72)</f>
@@ -19229,15 +19232,15 @@
       </c>
       <c r="D54" s="169">
         <f>SUMIF('Time Log'!$F$48:$F$137,A54,'Time Log'!$E$48:$E$137)</f>
-        <v>109.99999999999997</v>
+        <v>114.99999999999996</v>
       </c>
       <c r="E54" s="158">
         <f>D54+'Historical Data'!E69</f>
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="F54" s="27">
         <f t="shared" si="0"/>
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.15">
@@ -19383,15 +19386,15 @@
       </c>
       <c r="D61" s="169">
         <f>SUM(D50:D60)</f>
-        <v>220</v>
+        <v>224.99999999999997</v>
       </c>
       <c r="E61" s="169">
         <f>D61+'Historical Data'!E76</f>
-        <v>875</v>
+        <v>880</v>
       </c>
       <c r="F61" s="27">
         <f t="shared" si="0"/>
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.15">
@@ -19810,8 +19813,8 @@
   </sheetPr>
   <dimension ref="A1:M134"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="J72" sqref="J72"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -21937,7 +21940,7 @@
         <v>42833</v>
       </c>
       <c r="C65" s="474" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D65" s="474" t="s">
         <v>127</v>
@@ -22003,7 +22006,7 @@
         <v>42833</v>
       </c>
       <c r="C67" s="474" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D67" s="474" t="s">
         <v>127</v>
@@ -22104,7 +22107,7 @@
         <v>42833</v>
       </c>
       <c r="C70" s="474" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D70" s="474" t="s">
         <v>127</v>
@@ -22137,7 +22140,7 @@
         <v>42833</v>
       </c>
       <c r="C71" s="474" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D71" s="474" t="s">
         <v>127</v>
@@ -23531,8 +23534,8 @@
   </sheetPr>
   <dimension ref="A1:K137"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView showGridLines="0" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -25023,17 +25026,27 @@
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A55" s="11"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
+      <c r="A55" s="11">
+        <v>42833</v>
+      </c>
+      <c r="B55" s="12">
+        <v>0.23958333333333334</v>
+      </c>
+      <c r="C55" s="12">
+        <v>0.24305555555555555</v>
+      </c>
       <c r="D55" s="7"/>
-      <c r="E55" s="16" t="str">
+      <c r="E55" s="16">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F55" s="10"/>
+        <v>4.9999999999999822</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>127</v>
+      </c>
       <c r="G55" s="10"/>
-      <c r="H55" s="42"/>
+      <c r="H55" s="42" t="s">
+        <v>1018</v>
+      </c>
       <c r="I55" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -26670,7 +26683,7 @@
   </sheetPr>
   <dimension ref="A1:I122"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C46" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A69" workbookViewId="0">
       <selection activeCell="A45" sqref="A45:C45"/>
     </sheetView>
   </sheetViews>
@@ -32013,8 +32026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C61"/>
+    <sheetView showGridLines="0" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -42596,7 +42609,7 @@
   </sheetPr>
   <dimension ref="A1:G152"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A43" workbookViewId="0">
       <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>

--- a/201720Assignment5.xlsx
+++ b/201720Assignment5.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="892" firstSheet="1" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="892" firstSheet="1" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="4" r:id="rId1"/>
@@ -783,7 +783,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1698" uniqueCount="1019">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="1033">
   <si>
     <t>Create an interface  specification depicting the interaction between a test driver and the class specified above.  Create nominal scenario(s) and anomalous scenario(s) sufficient to convey your understanding of software behavior</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -4619,13 +4619,55 @@
     <t>Falsely called declination</t>
   </si>
   <si>
-    <t>{'op':'predict','body':'Betelgeuse','date':'2016-01-17','time':'03:15:42','lat':'7d24.3'}</t>
-  </si>
-  <si>
-    <t>Failed</t>
-  </si>
-  <si>
     <t>Add sidereal hour to star class</t>
+  </si>
+  <si>
+    <t>Issue converting angles, built functions to do so</t>
+  </si>
+  <si>
+    <t>Prev acceptance test no long applicable</t>
+  </si>
+  <si>
+    <t>Issues with str/int &amp; calculations</t>
+  </si>
+  <si>
+    <t>Need to build long calculator</t>
+  </si>
+  <si>
+    <t>Issue calculating total seconds</t>
+  </si>
+  <si>
+    <t>Build calculations for progression</t>
+  </si>
+  <si>
+    <t>Play with leapyear calc + writing new functions for angle conversion</t>
+  </si>
+  <si>
+    <t>Incorporate new functions for angle conversion</t>
+  </si>
+  <si>
+    <t>Calc diff in second for obs year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How does datetime work?  </t>
+  </si>
+  <si>
+    <t>Incorporate calc diff ins econds for obs year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calc GHAaries </t>
+  </si>
+  <si>
+    <t>Calc GHA star</t>
+  </si>
+  <si>
+    <t>Play with while loop decrease number until below X</t>
+  </si>
+  <si>
+    <t>Incorporate while loops for GHAaries and GHA star</t>
+  </si>
+  <si>
+    <t>Troubleshooting calculation</t>
   </si>
 </sst>
 </file>
@@ -15490,7 +15532,7 @@
       </c>
       <c r="F63" s="27">
         <f t="shared" si="1"/>
-        <v>0.25568181818181818</v>
+        <v>0.21531100478468901</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.15">
@@ -15526,15 +15568,15 @@
       </c>
       <c r="D65" s="169">
         <f>SUMIF('Time Log'!$F$48:$F$137,A65,'Time Log'!$E$48:$E$137)</f>
-        <v>114.99999999999996</v>
+        <v>229.99999999999983</v>
       </c>
       <c r="E65" s="158">
         <f>D65+'Historical Data'!E69</f>
-        <v>580</v>
+        <v>694.99999999999977</v>
       </c>
       <c r="F65" s="27">
         <f t="shared" si="1"/>
-        <v>0.65909090909090906</v>
+        <v>0.66507177033492804</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.15">
@@ -15578,7 +15620,7 @@
       </c>
       <c r="F67" s="27">
         <f t="shared" si="1"/>
-        <v>6.8181818181818177E-2</v>
+        <v>5.7416267942583733E-2</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.15">
@@ -15644,7 +15686,7 @@
       </c>
       <c r="F70" s="27">
         <f t="shared" si="1"/>
-        <v>5.681818181818182E-3</v>
+        <v>4.7846889952153108E-3</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.15">
@@ -15658,15 +15700,15 @@
       </c>
       <c r="D71" s="169">
         <f>SUMIF('Time Log'!$F$48:$F$137,A71,'Time Log'!$E$48:$E$137)</f>
-        <v>5.0000000000000222</v>
+        <v>55.000000000000163</v>
       </c>
       <c r="E71" s="158">
         <f>D71+'Historical Data'!E75</f>
-        <v>10.000000000000021</v>
+        <v>60.000000000000163</v>
       </c>
       <c r="F71" s="27">
         <f>IF($E$72=0,0,E71/$E$72)</f>
-        <v>1.1363636363636388E-2</v>
+        <v>5.7416267942583886E-2</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.15">
@@ -15678,11 +15720,11 @@
       </c>
       <c r="D72" s="169">
         <f>SUM(D61:D71)</f>
-        <v>224.99999999999997</v>
+        <v>390</v>
       </c>
       <c r="E72" s="158">
         <f>D72+'Historical Data'!E76</f>
-        <v>880</v>
+        <v>1045</v>
       </c>
       <c r="F72" s="27">
         <f>IF($E$72=0,0,E72/$E$72)</f>
@@ -15792,11 +15834,11 @@
       </c>
       <c r="D79" s="25">
         <f>COUNTIF('Change Log'!$D$60:$D$134,A79)</f>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E79" s="25">
         <f>D79+'Historical Data'!E83</f>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F79" s="27">
         <f t="shared" si="3"/>
@@ -15917,11 +15959,11 @@
       </c>
       <c r="D86" s="25">
         <f>SUM(D75:D85)</f>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E86" s="25">
         <f>D86+'Historical Data'!E90</f>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F86" s="27">
         <f t="shared" si="3"/>
@@ -16027,11 +16069,11 @@
       </c>
       <c r="D93" s="25">
         <f>COUNTIF('Change Log'!$F$60:$F$134,A93)</f>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E93" s="25">
         <f>D93+'Historical Data'!E97</f>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F93" s="225">
         <f t="shared" si="5"/>
@@ -16152,11 +16194,11 @@
       </c>
       <c r="D100" s="25">
         <f>SUM(D89:D99)</f>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E100" s="25">
         <f>D100+'Historical Data'!E104</f>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F100" s="225">
         <f t="shared" si="5"/>
@@ -19232,15 +19274,15 @@
       </c>
       <c r="D54" s="169">
         <f>SUMIF('Time Log'!$F$48:$F$137,A54,'Time Log'!$E$48:$E$137)</f>
-        <v>114.99999999999996</v>
+        <v>229.99999999999983</v>
       </c>
       <c r="E54" s="158">
         <f>D54+'Historical Data'!E69</f>
-        <v>580</v>
+        <v>694.99999999999977</v>
       </c>
       <c r="F54" s="27">
         <f t="shared" si="0"/>
-        <v>116</v>
+        <v>138.99999999999994</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.15">
@@ -19364,15 +19406,15 @@
       </c>
       <c r="D60" s="169">
         <f>SUMIF('Time Log'!$F$48:$F$137,A60,'Time Log'!$E$48:$E$137)</f>
-        <v>5.0000000000000222</v>
+        <v>55.000000000000163</v>
       </c>
       <c r="E60" s="158">
         <f>D60+'Historical Data'!E75</f>
-        <v>10.000000000000021</v>
+        <v>60.000000000000163</v>
       </c>
       <c r="F60" s="27">
         <f t="shared" si="0"/>
-        <v>2.0000000000000044</v>
+        <v>12.000000000000032</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.15">
@@ -19386,15 +19428,15 @@
       </c>
       <c r="D61" s="169">
         <f>SUM(D50:D60)</f>
-        <v>224.99999999999997</v>
+        <v>390</v>
       </c>
       <c r="E61" s="169">
         <f>D61+'Historical Data'!E76</f>
-        <v>880</v>
+        <v>1045</v>
       </c>
       <c r="F61" s="27">
         <f t="shared" si="0"/>
-        <v>176</v>
+        <v>209</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.15">
@@ -19813,8 +19855,8 @@
   </sheetPr>
   <dimension ref="A1:M134"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView showGridLines="0" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="H76" sqref="H76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -22169,15 +22211,27 @@
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="B72" s="11"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
+      <c r="B72" s="11">
+        <v>42833</v>
+      </c>
+      <c r="C72" s="474" t="s">
+        <v>146</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
+      <c r="F72" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="G72" s="5"/>
-      <c r="H72" s="7"/>
+      <c r="H72" s="7">
+        <v>30</v>
+      </c>
       <c r="I72" s="7"/>
-      <c r="J72" s="175"/>
+      <c r="J72" s="175" t="s">
+        <v>1017</v>
+      </c>
       <c r="K72" s="34" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
@@ -22190,15 +22244,27 @@
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="B73" s="11"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
+      <c r="B73" s="11">
+        <v>42833</v>
+      </c>
+      <c r="C73" s="474" t="s">
+        <v>146</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
+      <c r="F73" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="G73" s="5"/>
-      <c r="H73" s="7"/>
+      <c r="H73" s="7">
+        <v>60</v>
+      </c>
       <c r="I73" s="7"/>
-      <c r="J73" s="175"/>
+      <c r="J73" s="175" t="s">
+        <v>1020</v>
+      </c>
       <c r="K73" s="34" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
@@ -22211,15 +22277,27 @@
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="B74" s="11"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
+      <c r="B74" s="11">
+        <v>42833</v>
+      </c>
+      <c r="C74" s="474" t="s">
+        <v>146</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
+      <c r="F74" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="G74" s="5"/>
-      <c r="H74" s="7"/>
+      <c r="H74" s="7">
+        <v>45</v>
+      </c>
       <c r="I74" s="7"/>
-      <c r="J74" s="175"/>
+      <c r="J74" s="175" t="s">
+        <v>1021</v>
+      </c>
       <c r="K74" s="34" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
@@ -22232,15 +22310,27 @@
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="B75" s="11"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
+      <c r="B75" s="11">
+        <v>42833</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="E75" s="5"/>
-      <c r="F75" s="5"/>
+      <c r="F75" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="G75" s="5"/>
-      <c r="H75" s="7"/>
+      <c r="H75" s="7">
+        <v>10</v>
+      </c>
       <c r="I75" s="7"/>
-      <c r="J75" s="175"/>
+      <c r="J75" s="175" t="s">
+        <v>1019</v>
+      </c>
       <c r="K75" s="34" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
@@ -22253,15 +22343,27 @@
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="B76" s="11"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
+      <c r="B76" s="11">
+        <v>42833</v>
+      </c>
+      <c r="C76" s="474" t="s">
+        <v>189</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="E76" s="5"/>
-      <c r="F76" s="5"/>
+      <c r="F76" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="G76" s="5"/>
-      <c r="H76" s="7"/>
+      <c r="H76" s="7">
+        <v>5</v>
+      </c>
       <c r="I76" s="7"/>
-      <c r="J76" s="175"/>
+      <c r="J76" s="175" t="s">
+        <v>1018</v>
+      </c>
       <c r="K76" s="34" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
@@ -23534,8 +23636,8 @@
   </sheetPr>
   <dimension ref="A1:K137"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView showGridLines="0" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -25045,7 +25147,7 @@
       </c>
       <c r="G55" s="10"/>
       <c r="H55" s="42" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="I55" s="3" t="str">
         <f t="shared" si="0"/>
@@ -25053,187 +25155,297 @@
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A56" s="11"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
+      <c r="A56" s="11">
+        <v>42833</v>
+      </c>
+      <c r="B56" s="12">
+        <v>0.625</v>
+      </c>
+      <c r="C56" s="12">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="D56" s="7"/>
-      <c r="E56" s="16" t="str">
+      <c r="E56" s="16">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F56" s="10"/>
+        <v>30.000000000000053</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>127</v>
+      </c>
       <c r="G56" s="10"/>
-      <c r="H56" s="42"/>
+      <c r="H56" s="42" t="s">
+        <v>1022</v>
+      </c>
       <c r="I56" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A57" s="11"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="12"/>
+      <c r="A57" s="11">
+        <v>42833</v>
+      </c>
+      <c r="B57" s="12">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C57" s="12">
+        <v>0.65625</v>
+      </c>
       <c r="D57" s="7"/>
-      <c r="E57" s="16" t="str">
+      <c r="E57" s="16">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F57" s="10"/>
+        <v>14.999999999999947</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>144</v>
+      </c>
       <c r="G57" s="10"/>
-      <c r="H57" s="42"/>
+      <c r="H57" s="42" t="s">
+        <v>1023</v>
+      </c>
       <c r="I57" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A58" s="11"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
+      <c r="A58" s="11">
+        <v>42833</v>
+      </c>
+      <c r="B58" s="12">
+        <v>0.65625</v>
+      </c>
+      <c r="C58" s="12">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="D58" s="7"/>
-      <c r="E58" s="16" t="str">
+      <c r="E58" s="16">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F58" s="10"/>
+        <v>14.999999999999947</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>127</v>
+      </c>
       <c r="G58" s="10"/>
-      <c r="H58" s="42"/>
+      <c r="H58" s="42" t="s">
+        <v>1024</v>
+      </c>
       <c r="I58" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A59" s="11"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="12"/>
+      <c r="A59" s="11">
+        <v>42833</v>
+      </c>
+      <c r="B59" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C59" s="12">
+        <v>0.67361111111111116</v>
+      </c>
       <c r="D59" s="7"/>
-      <c r="E59" s="16" t="str">
+      <c r="E59" s="16">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F59" s="10"/>
+        <v>10.000000000000124</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>127</v>
+      </c>
       <c r="G59" s="10"/>
-      <c r="H59" s="42"/>
+      <c r="H59" s="42" t="s">
+        <v>1025</v>
+      </c>
       <c r="I59" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A60" s="11"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
+      <c r="A60" s="11">
+        <v>42833</v>
+      </c>
+      <c r="B60" s="12">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="C60" s="12">
+        <v>0.69444444444444453</v>
+      </c>
       <c r="D60" s="7"/>
-      <c r="E60" s="16" t="str">
+      <c r="E60" s="16">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F60" s="10"/>
+        <v>30.000000000000053</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>144</v>
+      </c>
       <c r="G60" s="10"/>
-      <c r="H60" s="42"/>
+      <c r="H60" s="42" t="s">
+        <v>1026</v>
+      </c>
       <c r="I60" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A61" s="11"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
+      <c r="A61" s="11">
+        <v>42833</v>
+      </c>
+      <c r="B61" s="12">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="C61" s="12">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="D61" s="7"/>
-      <c r="E61" s="16" t="str">
+      <c r="E61" s="16">
         <f t="shared" ref="E61:E76" si="2">IF(OR(ISBLANK(B61),ISBLANK(C61)),"",(C61-B61)*24*60-D61)</f>
-        <v/>
-      </c>
-      <c r="F61" s="10"/>
+        <v>19.999999999999929</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>127</v>
+      </c>
       <c r="G61" s="10"/>
-      <c r="H61" s="42"/>
+      <c r="H61" s="42" t="s">
+        <v>1027</v>
+      </c>
       <c r="I61" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A62" s="11"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
+      <c r="A62" s="11">
+        <v>42833</v>
+      </c>
+      <c r="B62" s="12">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C62" s="12">
+        <v>0.71875</v>
+      </c>
       <c r="D62" s="7"/>
-      <c r="E62" s="16" t="str">
+      <c r="E62" s="16">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F62" s="10"/>
+        <v>14.999999999999947</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>127</v>
+      </c>
       <c r="G62" s="10"/>
-      <c r="H62" s="42"/>
+      <c r="H62" s="42" t="s">
+        <v>1028</v>
+      </c>
       <c r="I62" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A63" s="11"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="12"/>
+      <c r="A63" s="11">
+        <v>42833</v>
+      </c>
+      <c r="B63" s="12">
+        <v>0.71875</v>
+      </c>
+      <c r="C63" s="12">
+        <v>0.72222222222222221</v>
+      </c>
       <c r="D63" s="7"/>
-      <c r="E63" s="16" t="str">
+      <c r="E63" s="16">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F63" s="10"/>
+        <v>4.9999999999999822</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>127</v>
+      </c>
       <c r="G63" s="10"/>
-      <c r="H63" s="42"/>
+      <c r="H63" s="42" t="s">
+        <v>1029</v>
+      </c>
       <c r="I63" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A64" s="11"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="12"/>
+      <c r="A64" s="11">
+        <v>42833</v>
+      </c>
+      <c r="B64" s="12">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="C64" s="12">
+        <v>0.72569444444444453</v>
+      </c>
       <c r="D64" s="7"/>
-      <c r="E64" s="16" t="str">
+      <c r="E64" s="16">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F64" s="10"/>
+        <v>5.0000000000001421</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>144</v>
+      </c>
       <c r="G64" s="10"/>
-      <c r="H64" s="42"/>
+      <c r="H64" s="42" t="s">
+        <v>1030</v>
+      </c>
       <c r="I64" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A65" s="11"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="12"/>
+      <c r="A65" s="11">
+        <v>42833</v>
+      </c>
+      <c r="B65" s="12">
+        <v>0.72569444444444453</v>
+      </c>
+      <c r="C65" s="12">
+        <v>0.73263888888888884</v>
+      </c>
       <c r="D65" s="7"/>
-      <c r="E65" s="16" t="str">
+      <c r="E65" s="16">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F65" s="10"/>
+        <v>9.9999999999998046</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>127</v>
+      </c>
       <c r="G65" s="10"/>
-      <c r="H65" s="42"/>
+      <c r="H65" s="42" t="s">
+        <v>1031</v>
+      </c>
       <c r="I65" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A66" s="11"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="12"/>
+      <c r="A66" s="11">
+        <v>42833</v>
+      </c>
+      <c r="B66" s="12">
+        <v>0.73263888888888884</v>
+      </c>
+      <c r="C66" s="12">
+        <v>0.73958333333333337</v>
+      </c>
       <c r="D66" s="7"/>
-      <c r="E66" s="16" t="str">
+      <c r="E66" s="16">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F66" s="10"/>
+        <v>10.000000000000124</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>127</v>
+      </c>
       <c r="G66" s="10"/>
-      <c r="H66" s="42"/>
+      <c r="H66" s="42" t="s">
+        <v>1032</v>
+      </c>
       <c r="I66" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -26481,7 +26693,7 @@
   </sheetPr>
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -29301,7 +29513,7 @@
   </sheetPr>
   <dimension ref="A1:K203"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A157" zoomScale="141" zoomScaleNormal="141" zoomScalePageLayoutView="141" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="D142" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="82" workbookViewId="0">
       <selection activeCell="F174" sqref="F174:H174"/>
     </sheetView>
   </sheetViews>
@@ -42610,7 +42822,7 @@
   <dimension ref="A1:G152"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -44054,24 +44266,16 @@
       </c>
       <c r="D57" s="59"/>
       <c r="E57" s="61" t="s">
-        <v>1017</v>
+        <v>1001</v>
       </c>
       <c r="F57" s="173"/>
     </row>
     <row r="58" spans="1:6" s="58" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="60" t="s">
-        <v>670</v>
-      </c>
-      <c r="B58" s="173" t="s">
-        <v>992</v>
-      </c>
-      <c r="C58" s="173" t="s">
-        <v>1016</v>
-      </c>
+      <c r="A58" s="60"/>
+      <c r="B58" s="173"/>
+      <c r="C58" s="173"/>
       <c r="D58" s="59"/>
-      <c r="E58" s="61" t="s">
-        <v>1001</v>
-      </c>
+      <c r="E58" s="61"/>
       <c r="F58" s="173"/>
     </row>
     <row r="59" spans="1:6" s="58" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
